--- a/data/neighbors.xlsx
+++ b/data/neighbors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bathy\Documents\ecm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252CD834-A959-4C06-A63F-5B96D59BF79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4175259B-668A-43E7-8527-D9ECD92A0E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61E4E2A0-FDA9-47EE-A1C2-41F7C233608E}"/>
   </bookViews>
